--- a/biology/Microbiologie/Bacillus_megaterium/Bacillus_megaterium.xlsx
+++ b/biology/Microbiologie/Bacillus_megaterium/Bacillus_megaterium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Bacillus megaterium est une espèce bactérienne Gram positive en forme de bâtonnet, aérobie strict, catalase positive, capable de produire des endospores, utilisée comme amendement en agriculture et horticulture. Cette bactérie peut se trouver sous forme de streptobacillus.
